--- a/口算.xlsx
+++ b/口算.xlsx
@@ -7,15 +7,16 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="试题" sheetId="1" r:id="rId1"/>
-    <sheet name="答案" sheetId="2" r:id="rId2"/>
+    <sheet name="population" sheetId="3" r:id="rId1"/>
+    <sheet name="试题" sheetId="1" r:id="rId2"/>
+    <sheet name="答案" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="176">
   <si>
     <t>5+6=</t>
   </si>
@@ -507,17 +508,63 @@
   </si>
   <si>
     <t>2×6=12</t>
+  </si>
+  <si>
+    <t>区号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>州府</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>村府</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2020人口数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAN Francisco</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>Anchorage</t>
+  </si>
+  <si>
+    <t>Aeast</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Awest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAN Francisco1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SAN Francisco2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -527,6 +574,13 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -554,7 +608,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -562,7 +616,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -846,383 +900,768 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="4" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
+      <c r="A1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
+      <c r="A2">
+        <v>1234</v>
+      </c>
+      <c r="B2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2">
+        <v>2685</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>22</v>
+      <c r="A3">
+        <v>1235</v>
+      </c>
+      <c r="B3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D3">
+        <v>3894</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>30</v>
+      <c r="A4">
+        <v>1236</v>
+      </c>
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4">
+        <v>5592</v>
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>36</v>
+      <c r="A5">
+        <v>1237</v>
+      </c>
+      <c r="B5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5">
+        <v>4578</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>44</v>
+      <c r="A6">
+        <v>1238</v>
+      </c>
+      <c r="B6" t="s">
+        <v>168</v>
+      </c>
+      <c r="C6" t="s">
+        <v>169</v>
+      </c>
+      <c r="D6">
+        <v>4320</v>
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>52</v>
+      <c r="A7">
+        <v>1239</v>
+      </c>
+      <c r="B7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7">
+        <v>4827</v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>60</v>
+      <c r="A8">
+        <v>1240</v>
+      </c>
+      <c r="B8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8">
+        <v>5164</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>66</v>
+      <c r="A9">
+        <v>1241</v>
+      </c>
+      <c r="B9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9">
+        <v>5165</v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>70</v>
+      <c r="A10">
+        <v>1242</v>
+      </c>
+      <c r="B10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10">
+        <v>5166</v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>78</v>
+      <c r="A11">
+        <v>1243</v>
+      </c>
+      <c r="B11" t="s">
+        <v>168</v>
+      </c>
+      <c r="C11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D11">
+        <v>5167</v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>84</v>
+      <c r="A12">
+        <v>1244</v>
+      </c>
+      <c r="B12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C12" t="s">
+        <v>172</v>
+      </c>
+      <c r="D12">
+        <v>5168</v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>70</v>
+      <c r="A13">
+        <v>1245</v>
+      </c>
+      <c r="B13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D13">
+        <v>5169</v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>98</v>
+      <c r="A14">
+        <v>1245</v>
+      </c>
+      <c r="B14" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" t="s">
+        <v>172</v>
+      </c>
+      <c r="D14">
+        <v>3150</v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>106</v>
+      <c r="A15">
+        <v>1245</v>
+      </c>
+      <c r="B15" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15">
+        <v>3151</v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>112</v>
+      <c r="A16">
+        <v>1245</v>
+      </c>
+      <c r="B16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C16" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16">
+        <v>3152</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>120</v>
+      <c r="A17">
+        <v>1245</v>
+      </c>
+      <c r="B17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" t="s">
+        <v>173</v>
+      </c>
+      <c r="D17">
+        <v>3153</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>126</v>
+      <c r="A18">
+        <v>1245</v>
+      </c>
+      <c r="B18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" t="s">
+        <v>173</v>
+      </c>
+      <c r="D18">
+        <v>3154</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>14</v>
+      <c r="A19">
+        <v>1245</v>
+      </c>
+      <c r="B19" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" t="s">
+        <v>173</v>
+      </c>
+      <c r="D19">
+        <v>3155</v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>134</v>
+      <c r="A20">
+        <v>1245</v>
+      </c>
+      <c r="B20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D20">
+        <v>3156</v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>140</v>
+      <c r="A21">
+        <v>1245</v>
+      </c>
+      <c r="B21" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D21">
+        <v>3157</v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>120</v>
+      <c r="A22">
+        <v>1245</v>
+      </c>
+      <c r="B22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" t="s">
+        <v>173</v>
+      </c>
+      <c r="D22">
+        <v>3158</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>152</v>
+      <c r="A23">
+        <v>1245</v>
+      </c>
+      <c r="B23" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D23">
+        <v>3159</v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>156</v>
+      <c r="A24">
+        <v>1245</v>
+      </c>
+      <c r="B24" t="s">
+        <v>170</v>
+      </c>
+      <c r="C24" t="s">
+        <v>171</v>
+      </c>
+      <c r="D24">
+        <v>3160</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4"/>
+      <c r="A25">
+        <v>1245</v>
+      </c>
+      <c r="B25" t="s">
+        <v>170</v>
+      </c>
+      <c r="C25" t="s">
+        <v>171</v>
+      </c>
+      <c r="D25">
+        <v>3161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
+        <v>1245</v>
+      </c>
+      <c r="B26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" t="s">
+        <v>171</v>
+      </c>
+      <c r="D26">
+        <v>3162</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="4" width="22.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="29.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="29.25">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="29.25">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="29.25">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="29.25">
+      <c r="A5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="29.25">
+      <c r="A6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="29.25">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="29.25">
+      <c r="A8" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="29.25">
+      <c r="A9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="29.25">
+      <c r="A10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="29.25">
+      <c r="A11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="29.25">
+      <c r="A12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="29.25">
+      <c r="A13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="29.25">
+      <c r="A14" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="29.25">
+      <c r="A15" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="29.25">
+      <c r="A16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="29.25">
+      <c r="A17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="29.25">
+      <c r="A18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="29.25">
+      <c r="A19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="29.25">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="29.25">
+      <c r="A21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="29.25">
+      <c r="A22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="29.25">
+      <c r="A23" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="29.25">
+      <c r="A24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="29.25">
+      <c r="A25" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="4" width="22.28515625" customWidth="1"/>
+    <col min="1" max="4" width="22.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="29.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1236,7 +1675,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="29.25">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1250,7 +1689,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="29.25">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
@@ -1264,7 +1703,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="29.25">
       <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
@@ -1278,7 +1717,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="29.25">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -1292,7 +1731,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="29.25">
       <c r="A6" s="1" t="s">
         <v>39</v>
       </c>
@@ -1306,7 +1745,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" ht="29.25">
       <c r="A7" s="1" t="s">
         <v>47</v>
       </c>
@@ -1320,7 +1759,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" ht="29.25">
       <c r="A8" s="1" t="s">
         <v>55</v>
       </c>
@@ -1334,7 +1773,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" ht="29.25">
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
@@ -1348,7 +1787,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" ht="29.25">
       <c r="A10" s="1" t="s">
         <v>39</v>
       </c>
@@ -1362,7 +1801,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" ht="29.25">
       <c r="A11" s="1" t="s">
         <v>73</v>
       </c>
@@ -1376,7 +1815,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" ht="29.25">
       <c r="A12" s="1" t="s">
         <v>31</v>
       </c>
@@ -1390,7 +1829,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" ht="29.25">
       <c r="A13" s="1" t="s">
         <v>87</v>
       </c>
@@ -1404,7 +1843,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" ht="29.25">
       <c r="A14" s="1" t="s">
         <v>93</v>
       </c>
@@ -1418,7 +1857,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" ht="29.25">
       <c r="A15" s="1" t="s">
         <v>101</v>
       </c>
@@ -1432,7 +1871,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" ht="29.25">
       <c r="A16" s="1" t="s">
         <v>109</v>
       </c>
@@ -1446,7 +1885,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" ht="29.25">
       <c r="A17" s="1" t="s">
         <v>115</v>
       </c>
@@ -1460,7 +1899,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" ht="29.25">
       <c r="A18" s="1" t="s">
         <v>123</v>
       </c>
@@ -1474,7 +1913,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" ht="29.25">
       <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
@@ -1488,7 +1927,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" ht="29.25">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -1502,7 +1941,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" ht="29.25">
       <c r="A21" s="1" t="s">
         <v>25</v>
       </c>
@@ -1516,7 +1955,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" ht="29.25">
       <c r="A22" s="1" t="s">
         <v>143</v>
       </c>
@@ -1530,7 +1969,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" ht="29.25">
       <c r="A23" s="1" t="s">
         <v>147</v>
       </c>
@@ -1544,7 +1983,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" ht="29.25">
       <c r="A24" s="1" t="s">
         <v>101</v>
       </c>
@@ -1558,7 +1997,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" ht="29.25">
       <c r="A25" s="1" t="s">
         <v>111</v>
       </c>
@@ -1572,8 +2011,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="31" spans="1:4"/>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>